--- a/rapid-review/planning.xlsx
+++ b/rapid-review/planning.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">legacy</t>
   </si>
   <si>
-    <t xml:space="preserve">it's a trade off between 3 options</t>
+    <t xml:space="preserve">it's a trade off between 3 options.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.computer.org/csdl/proceedings-article/hicss/1989/00049228/12OmNvDZEPy</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Although software maintenance claims a significant part of the data processing budget, very few authors have examined the tradeoffs between software maintenance and software replacement. We hypothesize that due to frequent modifications and functional enhancements, the system complexity increases rapidly, leading to a sharp increase in maintenance cost. Thus, there may exist a time when it is optimal to rewrite the system completely, which results in a reduction of complexity and subsequent maintenance cost. In this paper, we develop an analytical model for determining the optimal rewriting time. We consider two rewriting strategies involving old and new (superior) technologies. Several interesting propositions with managerial implications emerge out of the analysis. These include the impacts of increasing maintenance requirements and unstructuredness of the technology upon the optimal rewriting time, the differences in replacement times for old and new technologies, and the effects of system integration requirements on replacement decisions.</t>
   </si>
   <si>
-    <t xml:space="preserve">the greater the complexity, the bigger the risk</t>
+    <t xml:space="preserve">the greater the complexity, the bigger the risk.</t>
   </si>
   <si>
     <t xml:space="preserve">https://pubsonline.informs.org/doi/abs/10.1287/isre.1040.0037</t>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">We have been developing software since the 1960s but still have not learned enough to ensure that our software development projects are successful. Boehm2 suggested that realistic schedule and budgets together with a continuing steam of requirements changes are high risk factors. The Standish Group in 1994 noted that approximately 31% of corporate software development projects were cancelled before completion and 53% were challenged and cost 180% above their original estimate.13 Glass discussed 16 project disasters.5 He found that the failed projects he reviewed were mostly huge and that the failure factors were not just management factors but also included technical factors.</t>
   </si>
   <si>
-    <t xml:space="preserve">quantifies root causes of failure for 70 software projects</t>
+    <t xml:space="preserve">quantifies root causes of failure for 70 software projects.</t>
   </si>
   <si>
     <t xml:space="preserve">https://dl.acm.org/doi/abs/10.5555/800091.802962</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">The main aim of this paper is to indicate how various losses may be reduced or avoided when the development of software does not proceed according to its schedule; i.e., if what we call “bankruptcy” occurs. Data were collected from twenty three projects in various types of applications, the projects together containing a million lines of code. The causes of failure in developing software were obtained by interviewing the managers of the projects under observation. Having analysed these two aspects, this paper points out under what circumstances managers are likely to fail and proposes a method of detecting failures in the software development.</t>
   </si>
   <si>
-    <t xml:space="preserve">a method to decide when a softawre project has came to failure (bankruptcy).</t>
+    <t xml:space="preserve">a method to decide when a software project has came to failure (bankruptcy).</t>
   </si>
   <si>
     <t xml:space="preserve">https://ieeexplore.ieee.org/abstract/document/4632095</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">It has been suggested that there is more than one reason for a software development project to fail. However, most of the literature that discusses project failure tends to be rather general, supplying us with lists of risk and failure factors, and focusing on the negative business effects of the failure. Very little research has attempted an in-depth investigation of a number of failed projects to identify exactly what are the factors behind the failure. In this research we analyze data from 70 failed projects. This data provides us with practitionerspsila perspectives on 57 development and management factors for projects they considered were failures. Our results show that all projects we investigated suffered from numerous failure factors. For a single project the number of such factors ranges from 5 to 47. While there does not appear to be any overarching set of failure factors we discovered that all of the projects suffered from poor project management. Most projects additionally suffered from organizational factors outside the project managerpsilas control. We conclude with suggestions for minimizing the four most common failure factors.</t>
   </si>
   <si>
-    <t xml:space="preserve">quantifies ocurrence of factors in 70 project failure cases, such as poor planning, unclear requirements</t>
+    <t xml:space="preserve">quantifies occurrence of factors in 70 project failure cases, such as poor planning, unclear requirements.</t>
   </si>
   <si>
     <t xml:space="preserve">book</t>
@@ -906,12 +906,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -940,23 +968,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -969,36 +981,104 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1034,200 +1114,202 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="43.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="52.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="32.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="86.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="4" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1255,1812 +1337,1813 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="44.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="58.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="39.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="4.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="47.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="33.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="91.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="10" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+      <c r="E2" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="E3" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+      <c r="E7" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="E9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" s="22" customFormat="true" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="E13" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+      <c r="E14" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+      <c r="E16" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+    <row r="18" s="22" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="E19" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+    <row r="22" s="23" customFormat="true" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="E24" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" s="22" customFormat="true" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+      <c r="E26" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+    <row r="31" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+      <c r="E31" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" s="22" customFormat="true" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+    <row r="33" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+    <row r="34" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+    <row r="35" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="17" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="n">
+    <row r="36" s="22" customFormat="true" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="n">
+      <c r="E37" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+      <c r="E38" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" s="22" customFormat="true" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="n">
+    <row r="40" customFormat="false" ht="184.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="n">
+    <row r="41" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="n">
+    <row r="42" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+    <row r="43" s="22" customFormat="true" ht="173.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+    <row r="44" customFormat="false" ht="162" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
+    <row r="45" s="23" customFormat="true" ht="379.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
+    <row r="46" s="22" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+    <row r="47" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+    <row r="48" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="n">
+    <row r="49" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="n">
+    <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="n">
+      <c r="E50" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
+    <row r="52" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="n">
+    <row r="53" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="17" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="n">
+    <row r="54" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="n">
+    <row r="55" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="n">
+    <row r="56" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
+    <row r="57" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
+    <row r="58" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
+    <row r="59" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="17" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
+    <row r="60" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="17" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
+    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
+      <c r="E61" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
+    <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
+    <row r="64" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
+      <c r="A65" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
+      <c r="E65" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+      <c r="E66" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" s="24" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="17" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="69" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+    <row r="69" s="22" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
+    <row r="70" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
+    <row r="71" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="17" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
+    <row r="72" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="n">
+    <row r="73" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
+    <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="n">
+      <c r="E74" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" s="22" customFormat="true" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="76" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
+    <row r="76" s="22" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
+    <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="E77" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+      <c r="E77" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
+      <c r="E78" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="17" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
+    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
+      <c r="E82" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="C83" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
+      <c r="E83" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
+      <c r="E84" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="C85" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
+      <c r="E85" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="C86" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="9" t="s">
+      <c r="E87" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" s="22" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="21" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="6" t="s">
+    <row r="89" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="90" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B90" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="9" t="s">
+      <c r="E90" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" s="22" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B92" s="5" t="s">
+    <row r="92" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="17" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B93" s="5" t="s">
+    <row r="93" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="E93" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B94" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="6" t="s">
+      <c r="E94" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="6" t="s">
+    <row r="96" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="6" t="s">
+    <row r="97" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="6" t="s">
+    <row r="98" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B99" s="5" t="s">
+    <row r="99" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B99" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="E99" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="150.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="101" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="9" t="s">
+    <row r="101" s="22" customFormat="true" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="21" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="102" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="9" t="s">
+    <row r="102" s="22" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="103" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="13" t="s">
+    <row r="103" s="23" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E103" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D104" s="6" t="s">
+      <c r="A104" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D105" s="6" t="s">
+      <c r="E104" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D105" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="E105" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106" s="6" t="s">
+      <c r="E105" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3088,266 +3171,265 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="8.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="49.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="58.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="39.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="9.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="14" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="27.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="33.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="115.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="9.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="10" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="8" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="27" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="27" t="s">
         <v>225</v>
       </c>
     </row>
